--- a/output/fit_clients/fit_round_12.xlsx
+++ b/output/fit_clients/fit_round_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,32 +466,27 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>maxPeer</t>
+          <t>bandwidth</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>transRate</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>uploadTime</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>totalTime</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>bandwidth</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>transRate</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>uploadTime</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>totalTime</t>
         </is>
       </c>
     </row>
@@ -505,37 +500,34 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>70.95848971701832</v>
+        <v>94.48567453659643</v>
       </c>
       <c r="D2" t="n">
-        <v>79561592</v>
+        <v>77124472</v>
       </c>
       <c r="E2" t="n">
-        <v>1126927007.043005</v>
+        <v>1554820365.491026</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004220205241383404</v>
+        <v>0.003231527370684002</v>
       </c>
       <c r="G2" t="n">
-        <v>25.04851854875356</v>
+        <v>23.43408255363794</v>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
+        <v>50000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>59849.57765396059</v>
       </c>
       <c r="J2" t="n">
-        <v>76923.07692307692</v>
+        <v>33.15298249007267</v>
       </c>
       <c r="K2" t="n">
-        <v>109736.707696296</v>
-      </c>
-      <c r="L2" t="n">
-        <v>18.08138809386727</v>
-      </c>
-      <c r="M2" t="n">
-        <v>43.12990664262082</v>
+        <v>56.58706504371062</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -548,37 +540,34 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>175.9556230791904</v>
+        <v>78.9437565150632</v>
       </c>
       <c r="D3" t="n">
-        <v>79873912</v>
+        <v>79848824</v>
       </c>
       <c r="E3" t="n">
-        <v>232371787.401807</v>
+        <v>1966660542.614015</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003491682868916071</v>
+        <v>0.002226837544657043</v>
       </c>
       <c r="G3" t="n">
-        <v>302.4089996224546</v>
+        <v>16.026065462959</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
+        <v>50000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>45947.35935416678</v>
       </c>
       <c r="J3" t="n">
-        <v>76923.07692307692</v>
+        <v>43.1840268491961</v>
       </c>
       <c r="K3" t="n">
-        <v>97002.55162876946</v>
-      </c>
-      <c r="L3" t="n">
-        <v>20.45504954955761</v>
-      </c>
-      <c r="M3" t="n">
-        <v>322.8640491720122</v>
+        <v>59.2100923121551</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -591,37 +580,34 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>118.5748232692446</v>
+        <v>185.147150913934</v>
       </c>
       <c r="D4" t="n">
-        <v>79817080</v>
+        <v>78867832</v>
       </c>
       <c r="E4" t="n">
-        <v>1099128883.62274</v>
+        <v>754289136.7366544</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003200154175598993</v>
+        <v>0.002711485390692882</v>
       </c>
       <c r="G4" t="n">
-        <v>43.0536231732567</v>
+        <v>96.79414486024113</v>
       </c>
       <c r="H4" t="n">
-        <v>20</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
+        <v>50000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>52988.32684013613</v>
       </c>
       <c r="J4" t="n">
-        <v>76923.07692307692</v>
+        <v>37.44583228653804</v>
       </c>
       <c r="K4" t="n">
-        <v>91467.14202951529</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21.69294848372683</v>
-      </c>
-      <c r="M4" t="n">
-        <v>64.74657165698353</v>
+        <v>134.2399771467792</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -634,37 +620,34 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>80.7821316518251</v>
+        <v>84.32390019753649</v>
       </c>
       <c r="D5" t="n">
-        <v>79235960</v>
+        <v>80090488</v>
       </c>
       <c r="E5" t="n">
-        <v>833180992.2729816</v>
+        <v>795615759.8949659</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0029241020420135</v>
+        <v>0.0005104796921035593</v>
       </c>
       <c r="G5" t="n">
-        <v>38.41212060549256</v>
+        <v>42.44223567024093</v>
       </c>
       <c r="H5" t="n">
-        <v>20</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
+        <v>50000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13403.26452647862</v>
       </c>
       <c r="J5" t="n">
-        <v>76923.07692307692</v>
+        <v>148.0379646376567</v>
       </c>
       <c r="K5" t="n">
-        <v>85958.17114104528</v>
-      </c>
-      <c r="L5" t="n">
-        <v>23.08322726811183</v>
-      </c>
-      <c r="M5" t="n">
-        <v>61.49534787360439</v>
+        <v>190.4802003078976</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -677,37 +660,34 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>80.74375796642178</v>
+        <v>187.2131720865113</v>
       </c>
       <c r="D6" t="n">
-        <v>79761784</v>
+        <v>77747064</v>
       </c>
       <c r="E6" t="n">
-        <v>895042835.8966057</v>
+        <v>115418419.2300459</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00430839303353433</v>
+        <v>0.002985634470173412</v>
       </c>
       <c r="G6" t="n">
-        <v>35.97741875568727</v>
+        <v>630.5438321262311</v>
       </c>
       <c r="H6" t="n">
-        <v>20</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
+        <v>50000</v>
+      </c>
+      <c r="I6" t="n">
+        <v>56686.51989722918</v>
       </c>
       <c r="J6" t="n">
-        <v>76923.07692307692</v>
+        <v>35.00288963932299</v>
       </c>
       <c r="K6" t="n">
-        <v>111183.5560113591</v>
-      </c>
-      <c r="L6" t="n">
-        <v>17.84609227462814</v>
-      </c>
-      <c r="M6" t="n">
-        <v>53.8235110303154</v>
+        <v>665.5467217655541</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -720,37 +700,34 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>111.7396685830363</v>
+        <v>154.6990400426138</v>
       </c>
       <c r="D7" t="n">
-        <v>80025976</v>
+        <v>78687096</v>
       </c>
       <c r="E7" t="n">
-        <v>1405892873.14731</v>
+        <v>1813771933.612639</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002292505142216274</v>
+        <v>0.003228116453690606</v>
       </c>
       <c r="G7" t="n">
-        <v>31.80212449706709</v>
+        <v>33.55663959000454</v>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
+        <v>50000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>59806.63641379648</v>
       </c>
       <c r="J7" t="n">
-        <v>76923.07692307692</v>
+        <v>33.17678637319715</v>
       </c>
       <c r="K7" t="n">
-        <v>72219.37576738487</v>
-      </c>
-      <c r="L7" t="n">
-        <v>27.47451053012403</v>
-      </c>
-      <c r="M7" t="n">
-        <v>59.27663502719112</v>
+        <v>66.7334259632017</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -763,37 +740,34 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>123.9098299632842</v>
+        <v>109.8546787414553</v>
       </c>
       <c r="D8" t="n">
-        <v>79814520</v>
+        <v>80331128</v>
       </c>
       <c r="E8" t="n">
-        <v>1235208275.756846</v>
+        <v>384564964.2038803</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0009087328629546882</v>
+        <v>0.002946552293201313</v>
       </c>
       <c r="G8" t="n">
-        <v>40.03293936701237</v>
+        <v>114.7367945705555</v>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
+        <v>50000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>56170.75937896874</v>
       </c>
       <c r="J8" t="n">
-        <v>76923.07692307692</v>
+        <v>35.32428654939841</v>
       </c>
       <c r="K8" t="n">
-        <v>34408.26517493059</v>
-      </c>
-      <c r="L8" t="n">
-        <v>57.66614474494507</v>
-      </c>
-      <c r="M8" t="n">
-        <v>97.69908411195745</v>
+        <v>150.0610811199539</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -806,37 +780,34 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>110.2705246966666</v>
+        <v>175.2396158655241</v>
       </c>
       <c r="D9" t="n">
-        <v>79492984</v>
+        <v>79933816</v>
       </c>
       <c r="E9" t="n">
-        <v>967188858.4782858</v>
+        <v>1645392585.537693</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002054846491575216</v>
+        <v>0.003505066100237591</v>
       </c>
       <c r="G9" t="n">
-        <v>45.31551919019817</v>
+        <v>42.56604573773494</v>
       </c>
       <c r="H9" t="n">
-        <v>15</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
+        <v>50000</v>
+      </c>
+      <c r="I9" t="n">
+        <v>63212.60157349396</v>
       </c>
       <c r="J9" t="n">
-        <v>76923.07692307692</v>
+        <v>31.38918428619149</v>
       </c>
       <c r="K9" t="n">
-        <v>66574.94907215168</v>
-      </c>
-      <c r="L9" t="n">
-        <v>29.80388310698668</v>
-      </c>
-      <c r="M9" t="n">
-        <v>75.11940229718485</v>
+        <v>73.95523002392643</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -849,37 +820,34 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>109.2942173926688</v>
+        <v>137.4221354815492</v>
       </c>
       <c r="D10" t="n">
-        <v>80046456</v>
+        <v>79526264</v>
       </c>
       <c r="E10" t="n">
-        <v>1828838693.402923</v>
+        <v>655864899.8922498</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002065237360215993</v>
+        <v>0.003424005977314322</v>
       </c>
       <c r="G10" t="n">
-        <v>23.91849755567599</v>
+        <v>83.31494052772824</v>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
+        <v>50000</v>
+      </c>
+      <c r="I10" t="n">
+        <v>62232.25007087757</v>
       </c>
       <c r="J10" t="n">
-        <v>76923.07692307692</v>
+        <v>31.88366157000853</v>
       </c>
       <c r="K10" t="n">
-        <v>66827.82902013171</v>
-      </c>
-      <c r="L10" t="n">
-        <v>29.69110367781463</v>
-      </c>
-      <c r="M10" t="n">
-        <v>53.60960123349062</v>
+        <v>115.1986020977368</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -892,37 +860,34 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>153.218164522722</v>
+        <v>64.71874427858255</v>
       </c>
       <c r="D11" t="n">
-        <v>79497592</v>
+        <v>79488376</v>
       </c>
       <c r="E11" t="n">
-        <v>788234814.5322708</v>
+        <v>847670447.969707</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002172038545255918</v>
+        <v>0.004380122920164032</v>
       </c>
       <c r="G11" t="n">
-        <v>77.26425492538016</v>
+        <v>30.34426817512259</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
+        <v>50000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>73025.31227181827</v>
       </c>
       <c r="J11" t="n">
-        <v>76923.07692307692</v>
+        <v>27.17129086164461</v>
       </c>
       <c r="K11" t="n">
-        <v>69394.16014641368</v>
-      </c>
-      <c r="L11" t="n">
-        <v>28.59306886650957</v>
-      </c>
-      <c r="M11" t="n">
-        <v>105.8573237918897</v>
+        <v>57.51555903676721</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -935,37 +900,34 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>52.69345785456528</v>
+        <v>67.50386067480233</v>
       </c>
       <c r="D12" t="n">
-        <v>79762808</v>
+        <v>80719224</v>
       </c>
       <c r="E12" t="n">
-        <v>1304380947.56723</v>
+        <v>1724142322.08757</v>
       </c>
       <c r="F12" t="n">
-        <v>0.003557886963972279</v>
+        <v>0.00456891259277986</v>
       </c>
       <c r="G12" t="n">
-        <v>16.11100717757591</v>
+        <v>15.8016515831383</v>
       </c>
       <c r="H12" t="n">
-        <v>20</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
+        <v>50000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>74978.01040862896</v>
       </c>
       <c r="J12" t="n">
-        <v>76923.07692307692</v>
+        <v>26.46365233201288</v>
       </c>
       <c r="K12" t="n">
-        <v>98222.0433687905</v>
-      </c>
-      <c r="L12" t="n">
-        <v>20.20108655803495</v>
-      </c>
-      <c r="M12" t="n">
-        <v>36.31209373561087</v>
+        <v>42.26530391515118</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -978,37 +940,34 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>185.9418346898805</v>
+        <v>75.52820499130483</v>
       </c>
       <c r="D13" t="n">
-        <v>80041848</v>
+        <v>78618488</v>
       </c>
       <c r="E13" t="n">
-        <v>983761988.3588175</v>
+        <v>1784026622.852213</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002715096879788233</v>
+        <v>0.002881133540517463</v>
       </c>
       <c r="G13" t="n">
-        <v>75.64394764793487</v>
+        <v>16.64188527713</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
+        <v>50000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>55299.1007444182</v>
       </c>
       <c r="J13" t="n">
-        <v>76923.07692307692</v>
+        <v>35.88108980597268</v>
       </c>
       <c r="K13" t="n">
-        <v>81597.38144287353</v>
-      </c>
-      <c r="L13" t="n">
-        <v>24.31685876328196</v>
-      </c>
-      <c r="M13" t="n">
-        <v>99.96080641121682</v>
+        <v>52.52297508310268</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1021,37 +980,34 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>197.075549015551</v>
+        <v>120.8784459173929</v>
       </c>
       <c r="D14" t="n">
-        <v>79997816</v>
+        <v>78522232</v>
       </c>
       <c r="E14" t="n">
-        <v>1645456896.429853</v>
+        <v>1689936540.741589</v>
       </c>
       <c r="F14" t="n">
-        <v>0.001254936285397894</v>
+        <v>0.002758605575862713</v>
       </c>
       <c r="G14" t="n">
-        <v>47.90649193683429</v>
+        <v>28.08284555454309</v>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
+        <v>50000</v>
+      </c>
+      <c r="I14" t="n">
+        <v>53637.60979910402</v>
       </c>
       <c r="J14" t="n">
-        <v>76923.07692307692</v>
+        <v>36.99255070148828</v>
       </c>
       <c r="K14" t="n">
-        <v>45143.10254511117</v>
-      </c>
-      <c r="L14" t="n">
-        <v>43.95338131705085</v>
-      </c>
-      <c r="M14" t="n">
-        <v>91.85987325388514</v>
+        <v>65.07539625603137</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1064,37 +1020,34 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>72.50100601321395</v>
+        <v>120.9578477593467</v>
       </c>
       <c r="D15" t="n">
-        <v>79731064</v>
+        <v>79573368</v>
       </c>
       <c r="E15" t="n">
-        <v>1371947743.31511</v>
+        <v>1845789929.064862</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003943618243461979</v>
+        <v>0.001347918839303667</v>
       </c>
       <c r="G15" t="n">
-        <v>21.06706461186349</v>
+        <v>26.07291106285</v>
       </c>
       <c r="H15" t="n">
-        <v>20</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
+        <v>50000</v>
+      </c>
+      <c r="I15" t="n">
+        <v>31107.51375353295</v>
       </c>
       <c r="J15" t="n">
-        <v>76923.07692307692</v>
+        <v>63.78497541529338</v>
       </c>
       <c r="K15" t="n">
-        <v>105072.5329416696</v>
-      </c>
-      <c r="L15" t="n">
-        <v>18.88402177476308</v>
-      </c>
-      <c r="M15" t="n">
-        <v>39.95108638662657</v>
+        <v>89.85788647814339</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1107,37 +1060,34 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>96.3739219971601</v>
+        <v>140.7956884192546</v>
       </c>
       <c r="D16" t="n">
-        <v>79832952</v>
+        <v>81494904</v>
       </c>
       <c r="E16" t="n">
-        <v>789119212.298843</v>
+        <v>1176596833.910662</v>
       </c>
       <c r="F16" t="n">
-        <v>0.002360910960038808</v>
+        <v>0.000745769639484431</v>
       </c>
       <c r="G16" t="n">
-        <v>48.74938139218275</v>
+        <v>48.75982486373193</v>
       </c>
       <c r="H16" t="n">
-        <v>15</v>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
+        <v>50000</v>
+      </c>
+      <c r="I16" t="n">
+        <v>18831.62584501768</v>
       </c>
       <c r="J16" t="n">
-        <v>76923.07692307692</v>
+        <v>105.3648801399143</v>
       </c>
       <c r="K16" t="n">
-        <v>73792.20098831299</v>
-      </c>
-      <c r="L16" t="n">
-        <v>26.88891201814472</v>
-      </c>
-      <c r="M16" t="n">
-        <v>75.63829341032746</v>
+        <v>154.1247050036463</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1150,37 +1100,34 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>132.3194100858378</v>
+        <v>196.7389359801145</v>
       </c>
       <c r="D17" t="n">
-        <v>79816568</v>
+        <v>81252728</v>
       </c>
       <c r="E17" t="n">
-        <v>1734880216.672365</v>
+        <v>1868230569.587566</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003627136141331431</v>
+        <v>0.004249551194048438</v>
       </c>
       <c r="G17" t="n">
-        <v>30.4380702809947</v>
+        <v>42.78266160619207</v>
       </c>
       <c r="H17" t="n">
-        <v>20</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
+        <v>50000</v>
+      </c>
+      <c r="I17" t="n">
+        <v>71643.1739812325</v>
       </c>
       <c r="J17" t="n">
-        <v>76923.07692307692</v>
+        <v>27.6954787139913</v>
       </c>
       <c r="K17" t="n">
-        <v>99483.44712401924</v>
-      </c>
-      <c r="L17" t="n">
-        <v>19.94494619317365</v>
-      </c>
-      <c r="M17" t="n">
-        <v>50.38301647416836</v>
+        <v>70.47814032018337</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1193,37 +1140,34 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>176.1311528522601</v>
+        <v>118.6654387421937</v>
       </c>
       <c r="D18" t="n">
-        <v>79846264</v>
+        <v>81983864</v>
       </c>
       <c r="E18" t="n">
-        <v>1118402169.629412</v>
+        <v>400226885.844964</v>
       </c>
       <c r="F18" t="n">
-        <v>0.004926720339789661</v>
+        <v>0.002596574550918866</v>
       </c>
       <c r="G18" t="n">
-        <v>62.87279706335826</v>
+        <v>121.5392010809205</v>
       </c>
       <c r="H18" t="n">
-        <v>13</v>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
+        <v>50000</v>
+      </c>
+      <c r="I18" t="n">
+        <v>51379.99154348068</v>
       </c>
       <c r="J18" t="n">
-        <v>76923.07692307692</v>
+        <v>38.61799000727479</v>
       </c>
       <c r="K18" t="n">
-        <v>120830.5506456392</v>
-      </c>
-      <c r="L18" t="n">
-        <v>16.42127747823526</v>
-      </c>
-      <c r="M18" t="n">
-        <v>79.29407454159352</v>
+        <v>160.1571910881953</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1236,37 +1180,34 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>102.2661244817619</v>
+        <v>169.0457624734677</v>
       </c>
       <c r="D19" t="n">
-        <v>79854968</v>
+        <v>82083192</v>
       </c>
       <c r="E19" t="n">
-        <v>1541271038.75871</v>
+        <v>1938680831.89949</v>
       </c>
       <c r="F19" t="n">
-        <v>0.004131978223816866</v>
+        <v>0.0009343547621363681</v>
       </c>
       <c r="G19" t="n">
-        <v>26.49260867365715</v>
+        <v>35.78674619767281</v>
       </c>
       <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
+        <v>50000</v>
+      </c>
+      <c r="I19" t="n">
+        <v>22905.54898645561</v>
       </c>
       <c r="J19" t="n">
-        <v>76923.07692307692</v>
+        <v>86.6249484425491</v>
       </c>
       <c r="K19" t="n">
-        <v>108270.0903728412</v>
-      </c>
-      <c r="L19" t="n">
-        <v>18.32631702039958</v>
-      </c>
-      <c r="M19" t="n">
-        <v>44.81892569405673</v>
+        <v>122.4116946402219</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1279,37 +1220,34 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>165.4740402215803</v>
+        <v>93.17275385426552</v>
       </c>
       <c r="D20" t="n">
-        <v>80000888</v>
+        <v>81720696</v>
       </c>
       <c r="E20" t="n">
-        <v>1386432394.135247</v>
+        <v>502771702.4613907</v>
       </c>
       <c r="F20" t="n">
-        <v>0.002262925582568383</v>
+        <v>0.001832104121695809</v>
       </c>
       <c r="G20" t="n">
-        <v>47.74149181262842</v>
+        <v>75.72166707007516</v>
       </c>
       <c r="H20" t="n">
-        <v>15</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
+        <v>50000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>39656.99117543888</v>
       </c>
       <c r="J20" t="n">
-        <v>76923.07692307692</v>
+        <v>50.03385131317999</v>
       </c>
       <c r="K20" t="n">
-        <v>71532.30099033478</v>
-      </c>
-      <c r="L20" t="n">
-        <v>27.73840590236427</v>
-      </c>
-      <c r="M20" t="n">
-        <v>75.47989771499269</v>
+        <v>125.7555183832552</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1322,37 +1260,34 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>71.22950717745928</v>
+        <v>103.1098059754989</v>
       </c>
       <c r="D21" t="n">
-        <v>80230776</v>
+        <v>79697784</v>
       </c>
       <c r="E21" t="n">
-        <v>427332063.0859565</v>
+        <v>1762890553.804838</v>
       </c>
       <c r="F21" t="n">
-        <v>0.003963270018734173</v>
+        <v>0.004664054120855011</v>
       </c>
       <c r="G21" t="n">
-        <v>66.86601742069158</v>
+        <v>23.30724113071333</v>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
+        <v>50000</v>
+      </c>
+      <c r="I21" t="n">
+        <v>75942.40706595041</v>
       </c>
       <c r="J21" t="n">
-        <v>76923.07692307692</v>
+        <v>26.12758900671761</v>
       </c>
       <c r="K21" t="n">
-        <v>105410.4746201164</v>
-      </c>
-      <c r="L21" t="n">
-        <v>18.82348037185803</v>
-      </c>
-      <c r="M21" t="n">
-        <v>85.6894977925496</v>
+        <v>49.43483013743095</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
